--- a/public/uploads/entity_members_model.xlsx
+++ b/public/uploads/entity_members_model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aroligroup2009-my.sharepoint.com/personal/joeldigbeu_aroligroup2009_onmicrosoft_com/Documents/Documents/FREELANCE/APP VHONNEUR/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="11_E68F4205BEB07C5CF060021590509F77A0299751" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E719834B-B3D1-418D-8582-5B69756192DD}"/>
+  <xr:revisionPtr revIDLastSave="23" documentId="11_E68F4205BEB07C5CF060021590509F77A0299751" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3EB2FA6B-8D65-4BB2-BC28-63132464761A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Nom et prénoms</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Situation Matrimoniale</t>
+  </si>
+  <si>
+    <t>Email</t>
   </si>
 </sst>
 </file>
@@ -414,23 +417,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:G1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.75" customWidth="1"/>
-    <col min="2" max="2" width="22.625" customWidth="1"/>
-    <col min="3" max="3" width="22.25" customWidth="1"/>
-    <col min="4" max="4" width="25.375" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="23.5" customWidth="1"/>
+    <col min="2" max="3" width="22.625" customWidth="1"/>
+    <col min="4" max="4" width="22.25" customWidth="1"/>
+    <col min="5" max="5" width="25.375" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -438,22 +441,25 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:F1" numberStoredAsText="1"/>
+    <ignoredError sqref="D1:G1 A1:B1" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>